--- a/data/trans_dic/P57_AF_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Edad-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeAdic</t>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P57_AF_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P57_AF_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,24%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,17%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,55%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>46,69; 55,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>50,83; 60,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>65,34; 74,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>30,96; 46,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>50,92; 60,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>52,08; 61,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>64,78; 73,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>37,66; 52,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>50,43; 56,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>52,86; 59,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>65,66; 72,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>36,2; 46,94</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,93%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,49%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,57%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>54,93; 62,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>53,44; 61,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>71,49; 78,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>48,6; 60,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>53,21; 61,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>61,64; 69,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>69,46; 77,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>41,48; 52,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>55,06; 60,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>58,65; 64,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>71,81; 76,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>46,25; 54,65</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,04%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,06%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>56,76; 64,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>61,33; 68,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>69,73; 76,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>52,47; 61,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>56,16; 63,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>61,49; 69,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>68,76; 76,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>51,83; 58,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>57,25; 62,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>62,68; 67,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>70,55; 75,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>53,38; 58,79</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,55%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,72%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>57,63; 66,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>59,26; 67,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>72,57; 79,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>40,92; 58,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>56,91; 65,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>68,55; 76,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>73,46; 80,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>54,88; 61,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>58,7; 65,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>65,48; 71,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>74,25; 79,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>47,88; 58,78</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,41%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,35%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,19%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,15%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,22%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>59,22; 68,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>54,5; 64,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>69,0; 77,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>58,67; 66,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>61,46; 70,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>64,41; 73,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>73,92; 81,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>60,82; 67,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>61,91; 68,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>60,79; 67,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>72,84; 78,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>60,76; 65,72</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,12%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,09%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>65,58; 73,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>64,43; 72,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>70,74; 77,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>62,0; 68,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>63,24; 70,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>65,74; 72,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>78,96; 84,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>65,67; 79,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>65,36; 70,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>66,14; 71,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>76,5; 81,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>65,37; 74,94</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,7%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,94%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,83%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,17%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,98%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,04%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,85%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>58,95; 62,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>60,38; 63,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>72,36; 75,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>53,18; 58,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>59,65; 62,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>65,15; 68,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>74,53; 77,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>57,3; 63,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>59,76; 62,22</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>63,18; 65,65</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>74,07; 76,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>56,24; 59,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_AF_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>43,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>39,09%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,96; 46,25</t>
+          <t>28,05; 44,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,66; 52,39</t>
+          <t>35,52; 50,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,2; 46,94</t>
+          <t>33,86; 44,61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>53,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>41,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>50,57%</t>
+          <t>46,65%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,6; 60,83</t>
+          <t>47,23; 59,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,48; 52,43</t>
+          <t>26,69; 49,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>46,25; 54,65</t>
+          <t>36,07; 51,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>57,05%</t>
+          <t>56,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,12%</t>
+          <t>54,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>55,42%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,47; 61,69</t>
+          <t>51,8; 60,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,83; 58,72</t>
+          <t>51,27; 58,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,38; 58,79</t>
+          <t>52,69; 58,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>40,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>58,47%</t>
+          <t>55,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>55,72%</t>
+          <t>47,37%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,92; 58,67</t>
+          <t>19,15; 57,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,88; 61,68</t>
+          <t>47,13; 59,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,88; 58,78</t>
+          <t>24,39; 57,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>62,35%</t>
+          <t>61,51%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>64,1%</t>
+          <t>63,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>63,22%</t>
+          <t>62,49%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58,67; 66,96</t>
+          <t>57,83; 66,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,82; 67,05</t>
+          <t>60,14; 66,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>60,76; 65,72</t>
+          <t>59,91; 64,94</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>69,48%</t>
+          <t>67,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>68,62%</t>
+          <t>66,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>74,45%</t>
+          <t>71,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>65,12%</t>
+          <t>62,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>67,11%</t>
+          <t>64,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>69,0%</t>
+          <t>70,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>82,3%</t>
+          <t>80,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>70,11%</t>
+          <t>74,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>68,12%</t>
+          <t>65,89%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>68,84%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>78,91%</t>
+          <t>76,44%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>68,09%</t>
+          <t>69,5%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>65,58; 73,49</t>
+          <t>61,95; 72,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>64,43; 72,37</t>
+          <t>61,27; 72,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>70,74; 77,89</t>
+          <t>66,49; 76,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>62,0; 68,05</t>
+          <t>58,08; 65,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,24; 70,29</t>
+          <t>59,5; 69,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,74; 72,56</t>
+          <t>65,48; 75,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>78,96; 84,78</t>
+          <t>75,8; 84,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>65,67; 79,8</t>
+          <t>59,75; 89,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65,36; 70,7</t>
+          <t>61,98; 69,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>66,14; 71,4</t>
+          <t>64,77; 72,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>76,5; 81,17</t>
+          <t>73,21; 79,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>65,37; 74,94</t>
+          <t>60,58; 83,88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>72,26%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>61,94%</t>
+          <t>70,78%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>73,94%</t>
+          <t>77,99%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>67,27%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>69,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>66,83%</t>
+          <t>67,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>76,09%</t>
+          <t>83,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>59,17%</t>
+          <t>70,48%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>60,98%</t>
+          <t>70,71%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>68,92%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>75,04%</t>
+          <t>81,59%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>57,85%</t>
+          <t>69,19%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>65,85; 77,93</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>64,01; 76,49</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>73,12; 82,78</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>62,3; 71,44</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>64,78; 75,36</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>62,67; 72,09</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>79,06; 87,98</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>67,21; 73,69</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>66,63; 74,59</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>65,1; 72,71</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>78,16; 84,56</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>66,57; 71,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>60,7%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>61,94%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>73,94%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>51,89%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>61,25%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>66,83%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>76,09%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>58,32%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>60,98%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>64,43%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>75,04%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>55,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>58,95; 62,32</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>60,38; 63,69</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>72,36; 75,49</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>53,18; 58,41</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>39,68; 56,55</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>59,65; 62,89</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>65,15; 68,44</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>74,53; 77,51</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>57,3; 63,92</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>54,67; 66,72</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>59,76; 62,22</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>63,18; 65,65</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>74,07; 76,07</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>56,24; 59,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>49,32; 58,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P57_AF_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,69; 55,48</t>
+          <t>46,07; 55,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,83; 60,49</t>
+          <t>50,48; 60,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,34; 74,4</t>
+          <t>64,72; 73,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,05; 44,35</t>
+          <t>27,95; 43,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,92; 60,02</t>
+          <t>50,83; 60,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,08; 61,61</t>
+          <t>52,19; 61,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>64,78; 73,02</t>
+          <t>63,48; 73,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,52; 50,56</t>
+          <t>35,19; 50,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50,43; 56,54</t>
+          <t>49,9; 56,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,86; 59,69</t>
+          <t>52,76; 59,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65,66; 72,13</t>
+          <t>65,68; 72,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,86; 44,61</t>
+          <t>34,05; 44,87</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>54,93; 62,35</t>
+          <t>55,01; 62,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,44; 61,3</t>
+          <t>53,59; 61,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,49; 78,63</t>
+          <t>71,57; 78,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,23; 59,46</t>
+          <t>46,21; 59,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,21; 61,12</t>
+          <t>53,03; 60,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,64; 69,67</t>
+          <t>61,78; 69,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>69,46; 77,0</t>
+          <t>69,42; 77,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,69; 49,43</t>
+          <t>24,73; 49,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>55,06; 60,45</t>
+          <t>55,35; 60,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,65; 64,31</t>
+          <t>58,35; 63,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>71,81; 76,85</t>
+          <t>71,78; 76,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,07; 51,81</t>
+          <t>33,81; 51,89</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>56,76; 64,79</t>
+          <t>56,9; 64,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,33; 68,93</t>
+          <t>61,52; 68,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,73; 76,68</t>
+          <t>69,52; 76,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,8; 60,75</t>
+          <t>51,56; 60,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,16; 63,61</t>
+          <t>55,38; 63,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,49; 69,22</t>
+          <t>61,75; 69,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>68,76; 76,12</t>
+          <t>69,1; 76,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,27; 58,1</t>
+          <t>50,96; 58,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>57,25; 62,8</t>
+          <t>57,59; 63,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62,68; 67,83</t>
+          <t>62,75; 67,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>70,55; 75,4</t>
+          <t>70,58; 75,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,69; 58,11</t>
+          <t>52,69; 58,31</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,63; 66,75</t>
+          <t>57,67; 66,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,26; 67,48</t>
+          <t>59,49; 67,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,57; 79,77</t>
+          <t>72,3; 79,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,15; 57,74</t>
+          <t>18,62; 57,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,91; 65,98</t>
+          <t>56,81; 65,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,55; 76,02</t>
+          <t>68,72; 76,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,46; 80,18</t>
+          <t>73,54; 80,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,13; 59,8</t>
+          <t>46,63; 59,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58,7; 65,12</t>
+          <t>58,83; 65,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>65,48; 71,1</t>
+          <t>65,16; 70,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>74,25; 79,07</t>
+          <t>74,42; 79,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,39; 57,17</t>
+          <t>27,85; 57,23</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59,22; 68,78</t>
+          <t>59,17; 68,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,5; 64,14</t>
+          <t>53,82; 63,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,0; 77,62</t>
+          <t>69,01; 77,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57,83; 66,23</t>
+          <t>57,52; 65,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>61,46; 70,77</t>
+          <t>61,8; 70,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,41; 73,43</t>
+          <t>64,14; 73,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>73,92; 81,93</t>
+          <t>74,3; 81,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,14; 66,43</t>
+          <t>60,34; 66,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>61,91; 68,52</t>
+          <t>62,04; 68,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>60,79; 67,49</t>
+          <t>60,89; 67,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>72,84; 78,92</t>
+          <t>72,81; 78,49</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>59,91; 64,94</t>
+          <t>59,91; 64,99</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>61,95; 72,53</t>
+          <t>62,25; 72,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>61,27; 72,15</t>
+          <t>61,68; 72,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66,49; 76,91</t>
+          <t>66,45; 76,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>58,08; 65,99</t>
+          <t>57,68; 66,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>59,5; 69,54</t>
+          <t>59,69; 69,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,48; 75,25</t>
+          <t>65,24; 74,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,8; 84,54</t>
+          <t>75,92; 84,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>59,75; 89,72</t>
+          <t>59,87; 89,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>61,98; 69,2</t>
+          <t>62,15; 69,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>64,77; 72,26</t>
+          <t>64,77; 72,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,21; 79,49</t>
+          <t>72,79; 79,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>60,58; 83,88</t>
+          <t>60,43; 83,71</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>65,85; 77,93</t>
+          <t>65,72; 77,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>64,01; 76,49</t>
+          <t>64,25; 76,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>73,12; 82,78</t>
+          <t>73,21; 82,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>62,3; 71,44</t>
+          <t>62,85; 71,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,78; 75,36</t>
+          <t>64,13; 75,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,67; 72,09</t>
+          <t>62,52; 72,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>79,06; 87,98</t>
+          <t>79,2; 87,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>67,21; 73,69</t>
+          <t>67,25; 73,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>66,63; 74,59</t>
+          <t>66,71; 74,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>65,1; 72,71</t>
+          <t>65,22; 72,64</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>78,16; 84,56</t>
+          <t>78,19; 84,5</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>66,57; 71,75</t>
+          <t>66,14; 71,9</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>58,95; 62,32</t>
+          <t>59,15; 62,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>60,38; 63,69</t>
+          <t>60,1; 63,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>72,36; 75,49</t>
+          <t>72,31; 75,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>39,68; 56,55</t>
+          <t>39,25; 56,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,65; 62,89</t>
+          <t>59,51; 62,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>65,15; 68,44</t>
+          <t>65,2; 68,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>74,53; 77,51</t>
+          <t>74,56; 77,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>54,67; 66,72</t>
+          <t>54,62; 65,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>59,76; 62,22</t>
+          <t>59,81; 62,09</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>63,18; 65,65</t>
+          <t>63,27; 65,54</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>74,07; 76,07</t>
+          <t>74,01; 76,13</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>49,32; 58,67</t>
+          <t>49,44; 58,84</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>250826</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>250879</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>291929</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>142713</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>260758</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>244244</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>271948</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>135451</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>511584</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>495123</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>563877</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>278164</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>227214; 272259</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>227746; 272723</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>271482; 309510</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>111328; 174956</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>237603; 281201</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>224016; 266048</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>251231; 289386</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>110221; 158012</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>479439; 540600</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>464476; 524604</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>535398; 589658</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>242289; 319296</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>430205</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>393450</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>442092</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>225736</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>357592</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>399068</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>412443</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>209296</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>787797</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>792517</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>854535</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>435031</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>404615; 458476</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>366024; 421413</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>420181; 462753</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>195111; 251633</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>331161; 380750</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>375707; 421406</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>388866; 431990</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>126203; 252965</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>752762; 822340</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>753336; 824828</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>823471; 882673</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>315338; 483953</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>387137</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>444258</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>490105</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>299598</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>410907</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>461453</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>475047</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>295351</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>798044</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>905711</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>965152</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>594949</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>362762; 408993</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>418727; 469526</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>464573; 511563</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>274542; 323889</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>381461; 434189</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>436273; 488157</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>451268; 496671</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>275722; 315311</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>763847; 837432</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>870479; 941884</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>932585; 996907</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>565706; 626055</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>322955</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>388744</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>488559</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>357146</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>317034</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>443903</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>499955</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>393249</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>639989</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>832647</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>988514</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>750395</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>299374; 345629</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>363222; 411968</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>464331; 509493</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>163788; 507649</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>292940; 336708</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>420115; 465760</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>477351; 522237</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>328631; 421339</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>608724; 673976</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>796188; 864352</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>960902; 1023488</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>441213; 906605</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>247029</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>252726</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>346888</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>342500</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>267873</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>306777</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>386321</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>342915</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>514902</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>559503</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>733209</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>685415</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>228327; 264935</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>230017; 273116</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>326095; 365896</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>320285; 363516</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>249673; 286558</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>285258; 324755</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>366693; 403848</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>325832; 358475</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>489995; 542055</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>531012; 588632</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>703402; 758217</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>657050; 712775</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>196241</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>204027</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>239114</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>227592</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>221356</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>245382</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>303710</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>448114</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>417597</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>449410</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>542824</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>675706</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>181057; 212266</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>188181; 220302</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>221544; 255007</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>211686; 243292</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>204712; 237428</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>227340; 261324</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>286051; 318833</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>362341; 543836</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>393862; 441979</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>423328; 472764</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>516904; 561684</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>587502; 813852</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>151666</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>175403</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>199767</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>186492</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>232859</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>259713</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>333542</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>292414</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>384525</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>435117</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>533309</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>478906</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>137926; 162804</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>159226; 190073</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>187526; 210991</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>174243; 197755</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>214142; 250629</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>239817; 279716</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>314831; 348747</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>279013; 303854</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>362741; 407059</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>411782; 458631</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>511078; 552334</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>457800; 497643</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2379</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2185</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2517</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3213</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4148</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>4896</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1986059</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2109487</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2498453</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1781775</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2068380</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2360541</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2682965</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2116789</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4054439</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4470028</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>5181419</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3898565</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1935520; 2047449</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2047014; 2164819</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2443440; 2549433</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1347645; 1940319</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2009712; 2120774</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2303002; 2419673</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2628925; 2732085</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1982363; 2366368</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3977174; 4128712</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4389377; 4546755</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>5110015; 5256477</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>3491972; 4156024</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>